--- a/CasoPrueba.xlsx
+++ b/CasoPrueba.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Academico\CarpetaTrabajo\CursosInacap\PruebasSoftware\Recursos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ellia\django-projects\sistema-veterinaria\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6941E130-849F-48DA-97C2-375914616501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFFD7B23-F172-4070-9341-E70E9B8C9EEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{57B010D6-52AA-4EA4-996E-4A0575E21269}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{57B010D6-52AA-4EA4-996E-4A0575E21269}"/>
   </bookViews>
   <sheets>
     <sheet name="Identificación" sheetId="2" r:id="rId1"/>
-    <sheet name="Escenario 1" sheetId="1" r:id="rId2"/>
+    <sheet name="Login sistema" sheetId="1" r:id="rId2"/>
+    <sheet name="Creación fichas clínicas" sheetId="3" r:id="rId3"/>
+    <sheet name="Creación de clientes" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja3" sheetId="5" r:id="rId5"/>
+    <sheet name="Hoja4" sheetId="6" r:id="rId6"/>
+    <sheet name="Hoja5" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="105">
   <si>
     <t>Resultados esperados</t>
   </si>
@@ -173,21 +178,12 @@
     <t xml:space="preserve">3- </t>
   </si>
   <si>
-    <t>Identifique los escenarios de acuerdo a su criterio</t>
-  </si>
-  <si>
-    <t>Cree caso de prueba para cada escenario en hojas Excel diferentes</t>
-  </si>
-  <si>
     <t>Escenarios</t>
   </si>
   <si>
     <t>Descripción</t>
   </si>
   <si>
-    <t>Describa cada uno de los escenarios identificados</t>
-  </si>
-  <si>
     <t>Escenarios Identificados</t>
   </si>
   <si>
@@ -197,7 +193,329 @@
     <t>Agragar diseño de interface sobre la plantilla del escenario</t>
   </si>
   <si>
-    <t>Evaluación 2: Validación de funcionalidad del sistema</t>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>LG-01</t>
+  </si>
+  <si>
+    <t>Logearse correctamente en el sistema</t>
+  </si>
+  <si>
+    <t>1.- Precondicion P1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.- Ingresar a la pestaña de login 2.- Ingresar el usuario 3.- Ingresar la contraseña 4.- Click en boton de Ingresar </t>
+  </si>
+  <si>
+    <t>Redirección al inicio de la pagina, acceso a los items del navbar, bienvenida de usuario en el navbar y opción de cerrar sesión</t>
+  </si>
+  <si>
+    <t>Acceso correcto al sistema. [Sprint 1]</t>
+  </si>
+  <si>
+    <t>LG-02</t>
+  </si>
+  <si>
+    <t>Cancelar login sin credenciales</t>
+  </si>
+  <si>
+    <t>LG-03</t>
+  </si>
+  <si>
+    <t>Cancelar login con credenciales</t>
+  </si>
+  <si>
+    <t>1.- Ingresar a la pestaña de login 2.- Ingresar el usuario 3.- Ingresar la contraseña 4.- Click en boton de cancelar</t>
+  </si>
+  <si>
+    <t>No requiere datos</t>
+  </si>
+  <si>
+    <t>Redirección al inicio de la pagina, sin acceso a las opciones del navbar salvo la sección de iniciar sesión</t>
+  </si>
+  <si>
+    <t>LG-04</t>
+  </si>
+  <si>
+    <t>1.- Ingresar a la pestaña de login 2.- Ingresar el usuario valido 3.- Dar click en el botón Ingresar</t>
+  </si>
+  <si>
+    <t>1.- Precondicion P1 [Usuario]</t>
+  </si>
+  <si>
+    <t>Mensaje de validación para ingresar el campo de contraseña</t>
+  </si>
+  <si>
+    <t>LG-05</t>
+  </si>
+  <si>
+    <t>1.- Ingresar a la pestaña de login 2.- Ingresar el usuario valido 3.- Ingresar contraseña incorrecta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mensaje de error: Por favor, introduzca un nombre de usuario y clave correctos. Observe que ambos campos pueden ser sensibles a mayúsculas. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Prioridad de la prueba</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ALTA</t>
+    </r>
+  </si>
+  <si>
+    <t>Clínica Veterinaria</t>
+  </si>
+  <si>
+    <t>Login sistema</t>
+  </si>
+  <si>
+    <t>Acceso correcto al sistema</t>
+  </si>
+  <si>
+    <t>LG-06</t>
+  </si>
+  <si>
+    <t>Logearse con nombre de usuario correcta y contraseña incorrecta</t>
+  </si>
+  <si>
+    <t>Logearse con solo nombre de usuario correcto sin contraseña</t>
+  </si>
+  <si>
+    <t>Logearse con nombre de usuario incorrecto y contraseña correcta</t>
+  </si>
+  <si>
+    <t>1.- Ingresar a la pestaña de login 2.- Ingresar el usuario inválido 3.- Ingresar contraseña correcta</t>
+  </si>
+  <si>
+    <t>1.- Precondicion P1 [Contraseña]</t>
+  </si>
+  <si>
+    <t>Creación fichas clínicas</t>
+  </si>
+  <si>
+    <t>FC</t>
+  </si>
+  <si>
+    <t>FC-01</t>
+  </si>
+  <si>
+    <t>Crear una ficha clínica con todos los campos vacíos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dependencias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Componente Login, Base de datos</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondiciones</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: P1=Usuario: user_test Contraseña:asd.123</t>
+    </r>
+  </si>
+  <si>
+    <t>1.- Precondición P1</t>
+  </si>
+  <si>
+    <t>FC-02</t>
+  </si>
+  <si>
+    <t>Mensaje de validación de campos: Completa este campo, por cada campo vacío de la ficha</t>
+  </si>
+  <si>
+    <t>Crear una ficha clínica completando todos los campos</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dependencias</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Componente Login, Componente ficha clínica, Base de datos, Componente razas, Componente clientes</t>
+    </r>
+  </si>
+  <si>
+    <t>1.- Con el usuario ya logeado, navegar a la sección de fichas  2.- Dar click en el botón "Crear nueva ficha" 3.-Rellenar todos los campos de la ficha 4.- Click en crear ficha</t>
+  </si>
+  <si>
+    <t>1.- Con el usuario ya logeado, navegar a la sección de fichas  2.- Dar click en el botón "Crear nueva ficha" 3.- Click en el botón "Crear ficha" del modal</t>
+  </si>
+  <si>
+    <t>Ficha agregada correctamente al listado en la sección de fichas, la ficha se visualiza inmediatamente al registrar la ficha</t>
+  </si>
+  <si>
+    <t>FC-03</t>
+  </si>
+  <si>
+    <t>Crear ficha clinica ingresando numeros en los campos de: nombre</t>
+  </si>
+  <si>
+    <t>1.- Con el usuario ya logeado, navegar a la sección de fichas  2.- Dar click en el botón "Crear nueva ficha" 3.-Rellenar el campo de nombre con numeros  4.-Rellenar los demás campos normalmente 5.- Click en el botón crear ficha</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Precondiciones</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: P1 = Usuario logeado en el sistema: Usuario:user_test/Contraseña:asd.123, P2= Raza: RazaPrueba, P3= Cliente: ClientePrueba</t>
+    </r>
+  </si>
+  <si>
+    <t>Mensaje de error: El nombre de la mascota debe tener solo letras y espacios.</t>
+  </si>
+  <si>
+    <t>FC-04</t>
+  </si>
+  <si>
+    <t>1.- Nombre mascota: Perrito 2.- Chip: 123, 3.- Edad meses: 20 4.-Sexo: Macho 5.-Raza: P2[Raza]  6.-Dueño: P3[Cliente] 7.- Imagen: archivo local PNG: test.png</t>
+  </si>
+  <si>
+    <t>1.- Nombre mascota: 12345 2.- Chip: 123, 3.- Edad meses: 20 4.-Sexo: Macho 5.-Raza: P2[Raza]  6.-Dueño: P3[Cliente] 7.- Imagen: archivo local PNG: test.png</t>
+  </si>
+  <si>
+    <t>Crear ficha clinica ingresando letras en el campo de: Num chip</t>
+  </si>
+  <si>
+    <t>1.- Con el usuario ya logeado, navegar a la sección de fichas  2.- Dar click en el botón "Crear nueva ficha" 3.-Rellenar el campo de num chip con letras  4.-Rellenar los demás campos normalmente 5.- Click en el botón crear ficha</t>
+  </si>
+  <si>
+    <t>1.- Nombre mascota: Perrito 2.- Chip: asd, 3.- Edad meses: 20 4.-Sexo: Macho 5.-Raza: P2[Raza]  6.-Dueño: P3[Cliente] 7.- Imagen: archivo local PNG: test.png</t>
+  </si>
+  <si>
+    <t>Mensaje de error: El Numero de chip debe contener solo número.</t>
+  </si>
+  <si>
+    <t>FC-05</t>
+  </si>
+  <si>
+    <t>Crear ficha clinica ingresando letras en el campo de: Edad meses</t>
+  </si>
+  <si>
+    <t>1.- Con el usuario ya logeado, navegar a la sección de fichas  2.- Dar click en el botón "Crear nueva ficha" 3.-Rellenar el campo de Edad meses con letras  4.-Rellenar los demás campos normalmente 5.- Click en el botón crear ficha</t>
+  </si>
+  <si>
+    <t>Mensaje de error: La edad en meses debe contener solo número.</t>
+  </si>
+  <si>
+    <t>FC-06</t>
+  </si>
+  <si>
+    <t>Crear ficha clinica con todos los campos y sin imagen</t>
+  </si>
+  <si>
+    <t>1.- Nombre mascota: Perrito 2.- Chip: 123, 3.- Edad meses: 20 4.-Sexo: Macho 5.-Raza: P2[Raza]  6.-Dueño: P3[Cliente]</t>
+  </si>
+  <si>
+    <t>Ficha agregada correctamente al listado en la sección de fichas, la ficha se visualiza inmediatamente al registrar la ficha, la ficha tendrá una imagen por defecto: mascota.png</t>
+  </si>
+  <si>
+    <t>FC-07</t>
+  </si>
+  <si>
+    <t>Crear ficha clinica con todos los campos y en imagen un archivo distinto a: png, JPG, JPEG, WebP</t>
+  </si>
+  <si>
+    <t>1.- Con el usuario ya logeado, navegar a la sección de fichas  2.- Dar click en el botón "Crear nueva ficha" 3.-Rellenar los demás campos normalmente sin ingresar una imagen 4.- Click en el botón crear ficha</t>
+  </si>
+  <si>
+    <t>1.- Con el usuario ya logeado, navegar a la sección de fichas  2.- Dar click en el botón "Crear nueva ficha" 3.-Rellenar los demás campos normalmente 4.- Ingresar un archivo sin extension de imagen 4.- Click en el botón crear ficha</t>
+  </si>
+  <si>
+    <t>1.- Nombre mascota: Perrito 2.- Chip: 123, 3.- Edad meses: 20 4.-Sexo: Macho 5.-Raza: P2[Raza]  6.-Dueño: P3[Cliente] 7.- Imagen: archivo local .txt: test.txt</t>
+  </si>
+  <si>
+    <t>Mensaje de error: Adjunte una imagen válida. El archivo adjunto o bien no es una imagen o bien está dañado.</t>
+  </si>
+  <si>
+    <t>Creación de clientes</t>
+  </si>
+  <si>
+    <t>Creación y visualización correcta de las fichas clínicas. [Sprint 1]</t>
+  </si>
+  <si>
+    <t>Creación y visualización correcta de los clientes. [Sprint 1]</t>
+  </si>
+  <si>
+    <t>Mandingas</t>
   </si>
 </sst>
 </file>
@@ -425,7 +743,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -459,27 +777,85 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -489,67 +865,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -864,10 +1212,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D760CD5-3A24-406C-97AF-8B0A25C94A25}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,115 +1224,126 @@
     <col min="2" max="2" width="4.85546875" customWidth="1"/>
     <col min="3" max="3" width="54.140625" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" customWidth="1"/>
-    <col min="5" max="5" width="49.7109375" customWidth="1"/>
+    <col min="5" max="5" width="64.42578125" customWidth="1"/>
     <col min="6" max="6" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="17"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="17"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="12"/>
-      <c r="C6" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="G6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="D8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="12"/>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="D9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E9" s="12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="12" t="s">
+        <v>101</v>
+      </c>
       <c r="D10" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="12"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E10" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -995,8 +1354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6392944-28CC-4A41-89EC-0C7FC5012DDC}">
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,150 +1363,159 @@
     <col min="1" max="1" width="2.140625" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="10" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="10"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
+      <c r="G2" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="10"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
       <c r="O2" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
       <c r="E3" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F3" s="10"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
+      <c r="G3" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
       <c r="J3" s="10" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="10"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="22"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="42" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="32"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="10"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="40"/>
+      <c r="G4" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
       <c r="J4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="K4" s="10"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="23"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="43"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="35"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="11" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="11"/>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="40"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
       <c r="J5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="K5" s="10"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="24"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="44"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
+      <c r="B6" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
+      <c r="B7" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
+      <c r="B8" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
     </row>
     <row r="9" spans="2:16" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
@@ -1169,204 +1537,215 @@
       <c r="B10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42" t="s">
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42" t="s">
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42" t="s">
+      <c r="J10" s="40"/>
+      <c r="K10" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="L10" s="42"/>
-      <c r="M10" s="42" t="s">
+      <c r="L10" s="40"/>
+      <c r="M10" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="N10" s="42"/>
+      <c r="N10" s="40"/>
       <c r="O10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="26"/>
+    <row r="11" spans="2:16" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="29"/>
       <c r="O11" s="9"/>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
+    <row r="12" spans="2:16" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="29"/>
       <c r="O12" s="9"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="26"/>
+    <row r="13" spans="2:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="29"/>
+      <c r="K13" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" s="29"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="29"/>
       <c r="O13" s="9"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="26"/>
+    <row r="14" spans="2:16" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="L14" s="29"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="29"/>
       <c r="O14" s="9"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="26"/>
+    <row r="15" spans="2:16" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="L15" s="29"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="29"/>
       <c r="O15" s="9"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="26"/>
+    <row r="16" spans="2:16" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="29"/>
+      <c r="K16" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="L16" s="29"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="29"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="9"/>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="9"/>
-    </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="F20" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F20" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="L2:N2"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
+  <mergeCells count="50">
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D5"/>
     <mergeCell ref="G2:I2"/>
@@ -1383,24 +1762,2039 @@
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O3:O5"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="B6:O6"/>
-    <mergeCell ref="B7:O7"/>
-    <mergeCell ref="B8:O8"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC7EAAE-60AE-4F33-91D5-CB725087A315}">
+  <dimension ref="B1:O19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:15" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="43"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="44"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="40"/>
+      <c r="O10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" s="29"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="2:15" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="29"/>
+      <c r="K12" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="29"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="2:15" ht="122.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="29"/>
+      <c r="K13" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="29"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="2:15" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="J14" s="29"/>
+      <c r="K14" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="29"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="2:15" ht="111.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="29"/>
+      <c r="K15" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="L15" s="29"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="2:15" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>92</v>
+      </c>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="29"/>
+      <c r="K16" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="29"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="2:15" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="29"/>
+      <c r="K17" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="29"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="54">
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="L3:N3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089D2DAB-1AC7-4355-A924-108635063406}">
+  <dimension ref="B2:O18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q18" sqref="Q18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="42"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="43"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="44"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="40"/>
+      <c r="O10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="L3:N3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C86FE1A-CAF7-400D-8813-6372F9C8BBBF}">
+  <dimension ref="B2:O18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="42"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="43"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="44"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="40"/>
+      <c r="O10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="L3:N3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42B28907-43E4-41D9-8712-D881E47E8968}">
+  <dimension ref="B2:O18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="42"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="43"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="44"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="40"/>
+      <c r="O10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="L3:N3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B06AB9C-46A4-4A42-AC35-9D0D2673FE2D}">
+  <dimension ref="B2:O18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="10"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="10"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="42"/>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="10"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="43"/>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="44"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
+      <c r="O7" s="45"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" s="45" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="2:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="40"/>
+      <c r="M10" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="N10" s="40"/>
+      <c r="O10" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="9"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="9"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="9"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="3"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="9"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="9"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="9"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="59">
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="B7:O7"/>
+    <mergeCell ref="B8:O8"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O3:O5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="B6:O6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="B3:D5"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="L3:N3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>